--- a/src/test/resources/DataDriven/LoginPage.xlsx
+++ b/src/test/resources/DataDriven/LoginPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-105" windowWidth="15675" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13905" windowHeight="5310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Password</t>
   </si>
@@ -105,17 +130,65 @@
     <t>9999999999</t>
   </si>
   <si>
-    <t>name34@gmail.com</t>
-  </si>
-  <si>
     <t>02-Jun-2002</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>cmsop</t>
+  </si>
+  <si>
+    <t>UploadFilePath</t>
+  </si>
+  <si>
+    <t>C:\\Users\\SAKSHI_BHAVASAR\\Desktop\\Alka_Aadhar.pdf</t>
+  </si>
+  <si>
+    <t>Fromdate</t>
+  </si>
+  <si>
+    <t>To date</t>
+  </si>
+  <si>
+    <t>G_Email</t>
+  </si>
+  <si>
+    <t>Email_Pass</t>
+  </si>
+  <si>
+    <t>EmailSub1</t>
+  </si>
+  <si>
+    <t>EmailSUb2</t>
+  </si>
+  <si>
+    <t>cms027048@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>ReachMyIndia Application Approved</t>
+  </si>
+  <si>
+    <t>ReachMyIndia Center Details</t>
+  </si>
+  <si>
+    <t>EmailSubforAppliationNumber</t>
+  </si>
+  <si>
+    <t>29-Nov-2023</t>
+  </si>
+  <si>
+    <t>13-Mar-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +222,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -198,6 +278,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,8 +625,8 @@
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -593,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
@@ -673,20 +755,111 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
